--- a/xls/CommonConfig.xlsx
+++ b/xls/CommonConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="105" windowWidth="27765" windowHeight="13650"/>
+    <workbookView xWindow="7785" yWindow="1050" windowWidth="15900" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="@单属性公共配置" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -53,6 +53,38 @@
   </si>
   <si>
     <t>好感度单位冷却时间内下降值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场初始挑战次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场购买挑战次数消耗的钻石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁技能第二个教练栏钻石花费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁技能第三个教练栏钻石花费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁技能第四个教练栏VIP等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁技能第五个教练栏VIP等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教练升级为紫色花费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教练升级为金色花费</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -60,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +136,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -121,15 +160,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -437,46 +509,47 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
     <col min="5" max="5" width="25.375" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>120</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2"/>
@@ -484,13 +557,13 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>50</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2"/>
@@ -498,80 +571,136 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="7">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>50</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>50</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <v>100</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>100</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6">
+        <v>500</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/xls/CommonConfig.xlsx
+++ b/xls/CommonConfig.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FBG\Server\kbengine\fbgServer\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="7785" yWindow="1050" windowWidth="15900" windowHeight="8520"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -85,6 +90,54 @@
   </si>
   <si>
     <t>教练升级为金色花费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色教练升级技能不消耗时间概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金色教练升级技能不消耗时间概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾问争夺守护方赢了之后CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾问争夺抢夺方输了之后CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾问争夺抢夺方赢了之后CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾问争夺守护方输了之后CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾问之争开启时间 24小时制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾问之争开启后倒计时结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾问之争花费钻石复活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石购买行动力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低官员废除高官员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高官员废除低官员</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +273,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -262,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,7 +350,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -695,12 +748,136 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="6"/>
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>45</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9">
+        <v>45</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
+        <v>15</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
+        <v>25</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9">
+        <v>20</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9">
+        <v>900</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9">
+        <v>200</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9">
+        <v>50</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9">
+        <v>5</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9">
+        <v>10</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
